--- a/Баллы 2020.xlsx
+++ b/Баллы 2020.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="14880" windowHeight="7875"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -111,12 +111,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,7 +148,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +179,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -416,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,6 +534,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -740,7 +749,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -775,7 +783,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -951,17 +958,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="Z1" sqref="Z1:Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
@@ -988,7 +995,7 @@
     <col min="32" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
@@ -1083,16 +1090,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="22">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1116,7 +1129,7 @@
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1134,16 +1147,22 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="22">
         <v>2</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1167,7 +1186,7 @@
       <c r="Z3" s="38"/>
       <c r="AA3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
@@ -1185,16 +1204,22 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="22">
         <v>3</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1218,7 +1243,7 @@
       <c r="Z4" s="38"/>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB4" s="6">
         <v>85</v>
@@ -1236,16 +1261,22 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="22">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1269,7 +1300,7 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1287,16 +1318,22 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="22">
         <v>5</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1320,7 +1357,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1338,16 +1375,22 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="22">
         <v>6</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1371,7 +1414,7 @@
       <c r="Z7" s="38"/>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB7" s="6">
         <v>85</v>
@@ -1389,16 +1432,22 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="40" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="22">
         <v>7</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1422,7 +1471,7 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA11" si="7">SUM(C8:Z8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1440,16 +1489,22 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="22">
         <v>8</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="21">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1491,16 +1546,22 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="22">
         <v>9</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1524,7 +1585,7 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1542,16 +1603,22 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="22">
         <v>10</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1575,7 +1642,7 @@
       <c r="Z11" s="38"/>
       <c r="AA11" s="35">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="35">
         <v>85</v>
@@ -1593,54 +1660,54 @@
         <v>Не зачет</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" s="13" customFormat="1" ht="15.75" thickBot="1">
       <c r="A12" s="20"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="43" t="s">
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="48" t="s">
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="48" t="s">
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="49"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="48" t="s">
+      <c r="T12" s="50"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="W12" s="49"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="41" t="s">
+      <c r="W12" s="50"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="Z12" s="42"/>
+      <c r="Z12" s="43"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1670,7 +1737,7 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1700,7 +1767,7 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1730,7 +1797,7 @@
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1760,7 +1827,7 @@
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1790,7 +1857,7 @@
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1820,7 +1887,7 @@
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1850,7 +1917,7 @@
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1880,7 +1947,7 @@
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1910,7 +1977,7 @@
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1940,7 +2007,7 @@
       <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1970,7 +2037,7 @@
       <c r="AA23" s="11"/>
       <c r="AB23" s="11"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2000,7 +2067,7 @@
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2031,7 +2098,7 @@
       <c r="AB25" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection sort="0"/>
+  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>
@@ -2110,24 +2177,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
